--- a/3. tài liệu chung/2.Firmware Update/Danh sach update server VNET.xlsx
+++ b/3. tài liệu chung/2.Firmware Update/Danh sach update server VNET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\3. tài liệu chung\2.Firmware Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Danh sách IP Port</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>SERVER,ip/domain,port#</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1TugmFrufMhjHwzD2Ku4z0kvlMS5dBRXP?usp=sharing</t>
+  </si>
+  <si>
+    <t>Link FW update</t>
   </si>
 </sst>
 </file>
@@ -231,6 +237,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -239,27 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,259 +559,265 @@
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>125212203114</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>14040</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="11">
         <v>14242</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11">
         <v>14747</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>125212203114</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>15050</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11">
         <v>15353</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11">
         <v>15454</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11">
         <v>15555</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11">
         <v>15757</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11">
         <v>15959</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>125212203114</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>16060</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11">
         <v>16363</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="11">
         <v>16464</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="11">
         <v>16565</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11">
         <v>16767</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="11">
         <v>16969</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>125212203114</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <v>13030</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11">
         <v>13232</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
